--- a/demo/py_outputs/Center_Karnataka_hits.xlsx
+++ b/demo/py_outputs/Center_Karnataka_hits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>censuscode2011</t>
   </si>
@@ -199,16 +199,16 @@
     <t>hoskera_7477</t>
   </si>
   <si>
-    <t>shivaji-nagar _7336; veerbhadra-nagar_3830</t>
-  </si>
-  <si>
-    <t>indiranagar_3763; j-m roda k h b colony bijapur_4109; jm-road_4068; j-m road pethi bowdi _4456; j-m roda k h b colony bijapur_4368; j-m road  zanda kattan road _4899; j-m road bagayat galli_4948; khaja-nagar _5079; khaja-nagar _5214; mahal-bagayat_3317; j-m roda k h b colony bijapur_3821; suhag-colony_4005; rani-bagicha_4538; suhag-colony_4727; patel-galli_4684; shakti-nagar_4685; babaleshwar-naka_4854; shakti-nagar_4923; babaleshwar-naka_4906; haranashikari-galli_5170; shakti-nagar_5218; raheem-nagar _6114; babaleshwar-naka_6558; adaki-galli_6751; suhag-colony_6719; neharu-nagar_7178; jorapur-peth gondali galli_7628; jadar-galli_4797; rani-bagicha_5113; patel-galli _5315; babaleshwar-naka_5306; ameen-nagar _6200; shakti-nagar_6322; adaki-galli_6916; ward-no 32_6880; babaleshwar-naka_7315; shali-husen nagar _7682; kumbar-galli_4334; shakti-nagar_4880; bijapur-_5047; julai-galli _6533; lalbahadur-shastrinagar_7069; taj-bowdi_7337</t>
-  </si>
-  <si>
-    <t>ramanagar_3305; suhag-colony_5387; nisar-maddi_7615; nisar-maddi_5707; tippu-sultan nagar _4279; ramanagar_6875; nisar-maddi_7664; nisar-maddi_7486</t>
-  </si>
-  <si>
-    <t>navanagar_5349; amargol_6777; bhairidevarkop_5231</t>
+    <t>veerbhadra-nagar_3830; shivaji-nagar _7336</t>
+  </si>
+  <si>
+    <t>suhag-colony_4005; suhag-colony_4727; patel-galli_4684; shakti-nagar_4685; shakti-nagar_4923; shakti-nagar_4880; patel-galli _5315; shakti-nagar_5218; ameen-nagar _6200; raheem-nagar _6114; shakti-nagar_6322; adaki-galli_6751; suhag-colony_6719; adaki-galli_6916; neharu-nagar_7178; jorapur-peth gondali galli_7628; babaleshwar-naka_4906; babaleshwar-naka_4854; khaja-nagar _5079; babaleshwar-naka_5306; khaja-nagar _5214; babaleshwar-naka_6558; ward-no 32_6880; taj-bowdi_7337; babaleshwar-naka_7315; shali-husen nagar _7682; j-m roda k h b colony bijapur_9058; rani-bagicha_4538; jadar-galli_4797; bijapur-_5047; rani-bagicha_5113; lalbahadur-shastrinagar_7069; j-m roda k h b colony bijapur_8595; mahal-bagayat_3317; indiranagar_3763; j-m roda k h b colony bijapur_3821; j-m roda k h b colony bijapur_4109; jm-road_4068; kumbar-galli_4334; j-m road pethi bowdi _4456; j-m roda k h b colony bijapur_4368; j-m road  zanda kattan road _4899; j-m road bagayat galli_4948; haranashikari-galli_5170; julai-galli _6533; j-m roda k h b colony bijapur_8929; j-m road turki galli_8810</t>
+  </si>
+  <si>
+    <t>suhag-colony_5387; ramanagar_3305; tippu-sultan nagar _4279; nisar-maddi_5707; ramanagar_6875; nisar-maddi_7615; nisar-maddi_7664; nisar-maddi_7486</t>
+  </si>
+  <si>
+    <t>navanagar_5349; bhairidevarkop_5231; amargol_6777</t>
   </si>
   <si>
     <t>nalawagal_6601</t>
@@ -217,10 +217,10 @@
     <t>managuli-agashi_5627</t>
   </si>
   <si>
-    <t>peti-boudi _3837; ward-na 28 sakaf roza _4925; ibrahim-roza _7131; raheem-nagar _4678</t>
-  </si>
-  <si>
-    <t>godihal-galli _3735; shahpur-geta_3628; j-m road  zanda kattan road _6836; shakti-nagar_4200</t>
+    <t>ward-na 28 sakaf roza _4925; ibrahim-roza _7131; ramanagar_8824; raheem-nagar _4678; peti-boudi _3837</t>
+  </si>
+  <si>
+    <t>shakti-nagar_4200; hakeem-chowk _8652; shahpur-geta_3628; godihal-galli _3735; j-m road  zanda kattan road _6836</t>
   </si>
   <si>
     <t>mantala_3084</t>
@@ -247,13 +247,13 @@
     <t>naika_3804</t>
   </si>
   <si>
-    <t>subhash-nagar_4682; gyangawadi_4928; gyangawadi_5183; subhash-nagar_4443; nehru-nagar _5413</t>
-  </si>
-  <si>
-    <t>indiranagar_3749; hakeem-chowk _3860; rajputa-galli_4002; neharu-nagar_3976; neharu-nagar_4153; pailwan-galli _4122; shakti-nagar_4045; ward-no 15 station road cmc qurters near hasimpeer darga bijapur _4612; haranashikari-galli_4861; j-m road bagayat galli_4827; ward-no 32_5029; rani-bagicha_4970; indi-road _6552; mubarak-colony _6742; managuli-agashi_6941; station-road gummaz galli _7835; kalebag_4424; patel-galli_4415; kumbar-galli_3350; j-m road pethi bowdi _3332; jamiya-masjid road vijayapur _3330; harakiri-galli _3315; ukkali-buruz_3743; matapati-galli_3873; j-m roda k h b colony bijapur_3807; hariyal-galli_4023; neharu-nagar_4168; j-m roda k h b colony bijapur_4113; bijapur_4413; hariyal-galli_4155; shahpur-geta_4319; lalbahadur-shastrinagar_4560; rajput-galli_4512; kumbar-galli_4759; ganesh-nagar _4704; raheem-nagar _4650; rajput-galli_4897; babaleshwar-naka_4882; j-m road bagayat galli_4804; lalbahadur-shastrinagar_5018; suhag-colony_5007; taj-bowdi_4926; raheem-nagar _5080; peti-boudi _5071; gyang-bawadi _5286; cmc-colony _5204; kalebag_5706; rani-bagicha_6098; navabag_6378; babaleshwar-naka_6446; babaleshwar-naka_6814; babaleshwar-naka_6772; babaleshwar-naka_7078; raheem-nagar _7061; ibrahim-roza _7162; indi-road _7410; neharu-nagar_7579; haranashikari-galli_4000; tekade-galli  _4683; ibrahimpur_4877; allapur-oni_5181; pailwan-galli _5067; pailwan-galli _5186; kannya- nagar_5457; babaleshwar-naka_5782; babaleshwar-naka_5761; jadar-galli_7418; khaja-nagar _5983; j-m road bagayat galli_5935; babaleshwar-naka_6455; j-m road  zanda kattan road _6443; indi-road _6737; ibrahim-roza _7217; keerti-nagar_7360; shahpet_7420; jm-road_3608; j-m road pethi bowdi _3496; badi-kaman_3730; indra-nagar_3865; peti-boudi _3812; chapparaband-galli_3779; bijapur_4367; bijapur-_4548; bijapur-_4973; bijapur-_4958; indi-road _5055; babaleshwar-naka_5673; rani-bagicha_5859; ameen-nagar _6211; lalbahadur-shastrinagar_6454; indiranagar_6660; lalbahadur-shastrinagar_6975; j-m road  zanda kattan road _7550; jadar-galli_7464; near-uppali buruz_7627; kannya- nagar_7765</t>
-  </si>
-  <si>
-    <t>lal-bangla_4878; nisar-maddi_5634; khaja-nagar _6517; jalanagar-_7626; nisar-maddi_7527; bijapur-_4496; bijapur-hudco colony _4943; managuli-agashi_6749; malla-madarasa chunna bati _7566</t>
+    <t>subhash-nagar_4682; gyangawadi_4928; gyangawadi_5183; nehru-nagar _5413; subhash-nagar_4443; shivabasav-nagar_9202</t>
+  </si>
+  <si>
+    <t>kumbar-galli_3350; j-m road pethi bowdi _3332; jamiya-masjid road vijayapur _3330; harakiri-galli _3315; kalebag_4424; patel-galli_4415; ukkali-buruz_3743; matapati-galli_3873; j-m roda k h b colony bijapur_3807; hariyal-galli_4023; neharu-nagar_4168; j-m roda k h b colony bijapur_4113; shahpur-geta_4319; bijapur_4413; rajput-galli_4512; hariyal-galli_4155; raheem-nagar _4650; lalbahadur-shastrinagar_4560; kumbar-galli_4759; ganesh-nagar _4704; rajput-galli_4897; babaleshwar-naka_4882; j-m road bagayat galli_4804; lalbahadur-shastrinagar_5018; suhag-colony_5007; taj-bowdi_4926; raheem-nagar _5080; peti-boudi _5071; gyang-bawadi _5286; cmc-colony _5204; kalebag_5706; navabag_6378; raheem-nagar _7061; ibrahim-roza _7162; indi-road _7410; neharu-nagar_7579; shakti-nagar_9177; allapur-oni_8582; tekade-galli  _4683; ibrahimpur_4877; pailwan-galli _5186; allapur-oni_5181; pailwan-galli _5067; babaleshwar-naka_5782; babaleshwar-naka_5761; khaja-nagar _5983; babaleshwar-naka_6455; babaleshwar-naka_6446; babaleshwar-naka_6814; babaleshwar-naka_6772; babaleshwar-naka_7078; ibrahim-roza _7217; keerti-nagar_7360; station-road gummaz galli _7835; station-road gummaz galli _8208; kalebag_8318; j-m road pethi bowdi _3496; jm-road_3608; chapparaband-galli_3779; badi-kaman_3730; indra-nagar_3865; peti-boudi _3812; bijapur_4367; bijapur-_4548; indi-road _5055; bijapur-_4973; bijapur-_4958; babaleshwar-naka_5673; taj-bowdi_8494; rani-bagicha_5859; rani-bagicha_6098; ameen-nagar _6211; lalbahadur-shastrinagar_6454; indiranagar_6660; lalbahadur-shastrinagar_6975; jadar-galli_7464; jadar-galli_7418; j-m road  zanda kattan road _7550; suhag-colony_8388; basava-nagar _8905; kannya- nagar_5457; near-uppali buruz_7627; kannya- nagar_7765; kannya- nagar_8114; j-m roda k h b colony bijapur_8554; j-m roda k h b colony bijapur_8585; indiranagar_3749; hakeem-chowk _3860; shakti-nagar_4045; rajputa-galli_4002; haranashikari-galli_4000; neharu-nagar_3976; neharu-nagar_4153; pailwan-galli _4122; ward-no 15 station road cmc qurters near hasimpeer darga bijapur _4612; haranashikari-galli_4861; j-m road bagayat galli_4827; ward-no 32_5029; rani-bagicha_4970; j-m road bagayat galli_5935; indi-road _6552; j-m road  zanda kattan road _6443; indi-road _6737; mubarak-colony _6742; managuli-agashi_6941; shahpet_7420; rajput-galli_8033; station-road gummaz galli _8385; badi-kaman_8968</t>
+  </si>
+  <si>
+    <t>bijapur-_4496; bijapur-hudco colony _4943; managuli-agashi_6749; nisar-maddi_7527; malla-madarasa chunna bati _7566; ; lal-bangla_4878; nisar-maddi_5634; khaja-nagar _6517; jalanagar-_7626</t>
   </si>
   <si>
     <t>amargol_5357; navanagar_5599; navanagar_6537; amargol_6754; navanagar_6693; amargol_7482; navanagar_7347; navanagar_7346</t>
@@ -265,16 +265,61 @@
     <t>mudenur_7209; mudenur_7245</t>
   </si>
   <si>
-    <t>shivaji-nagar _7336; veerbhadra-nagar_3830; subhash-nagar_4682; gyangawadi_4928; gyangawadi_5183; subhash-nagar_4443; nehru-nagar _5413</t>
-  </si>
-  <si>
-    <t>indiranagar_3763; j-m roda k h b colony bijapur_4109; jm-road_4068; j-m road pethi bowdi _4456; j-m roda k h b colony bijapur_4368; j-m road  zanda kattan road _4899; j-m road bagayat galli_4948; khaja-nagar _5079; khaja-nagar _5214; mahal-bagayat_3317; j-m roda k h b colony bijapur_3821; suhag-colony_4005; rani-bagicha_4538; suhag-colony_4727; patel-galli_4684; shakti-nagar_4685; babaleshwar-naka_4854; shakti-nagar_4923; babaleshwar-naka_4906; haranashikari-galli_5170; shakti-nagar_5218; raheem-nagar _6114; babaleshwar-naka_6558; adaki-galli_6751; suhag-colony_6719; neharu-nagar_7178; jorapur-peth gondali galli_7628; jadar-galli_4797; rani-bagicha_5113; patel-galli _5315; babaleshwar-naka_5306; ameen-nagar _6200; shakti-nagar_6322; adaki-galli_6916; ward-no 32_6880; babaleshwar-naka_7315; shali-husen nagar _7682; kumbar-galli_4334; shakti-nagar_4880; bijapur-_5047; julai-galli _6533; lalbahadur-shastrinagar_7069; taj-bowdi_7337; managuli-agashi_5627; peti-boudi _3837; ward-na 28 sakaf roza _4925; ibrahim-roza _7131; raheem-nagar _4678; godihal-galli _3735; shahpur-geta_3628; j-m road  zanda kattan road _6836; shakti-nagar_4200; indiranagar_3749; hakeem-chowk _3860; rajputa-galli_4002; neharu-nagar_3976; neharu-nagar_4153; pailwan-galli _4122; shakti-nagar_4045; ward-no 15 station road cmc qurters near hasimpeer darga bijapur _4612; haranashikari-galli_4861; j-m road bagayat galli_4827; ward-no 32_5029; rani-bagicha_4970; indi-road _6552; mubarak-colony _6742; managuli-agashi_6941; station-road gummaz galli _7835; kalebag_4424; patel-galli_4415; kumbar-galli_3350; j-m road pethi bowdi _3332; jamiya-masjid road vijayapur _3330; harakiri-galli _3315; ukkali-buruz_3743; matapati-galli_3873; j-m roda k h b colony bijapur_3807; hariyal-galli_4023; neharu-nagar_4168; j-m roda k h b colony bijapur_4113; bijapur_4413; hariyal-galli_4155; shahpur-geta_4319; lalbahadur-shastrinagar_4560; rajput-galli_4512; kumbar-galli_4759; ganesh-nagar _4704; raheem-nagar _4650; rajput-galli_4897; babaleshwar-naka_4882; j-m road bagayat galli_4804; lalbahadur-shastrinagar_5018; suhag-colony_5007; taj-bowdi_4926; raheem-nagar _5080; peti-boudi _5071; gyang-bawadi _5286; cmc-colony _5204; kalebag_5706; rani-bagicha_6098; navabag_6378; babaleshwar-naka_6446; babaleshwar-naka_6814; babaleshwar-naka_6772; babaleshwar-naka_7078; raheem-nagar _7061; ibrahim-roza _7162; indi-road _7410; neharu-nagar_7579; haranashikari-galli_4000; tekade-galli  _4683; ibrahimpur_4877; allapur-oni_5181; pailwan-galli _5067; pailwan-galli _5186; kannya- nagar_5457; babaleshwar-naka_5782; babaleshwar-naka_5761; jadar-galli_7418; khaja-nagar _5983; j-m road bagayat galli_5935; babaleshwar-naka_6455; j-m road  zanda kattan road _6443; indi-road _6737; ibrahim-roza _7217; keerti-nagar_7360; shahpet_7420; jm-road_3608; j-m road pethi bowdi _3496; badi-kaman_3730; indra-nagar_3865; peti-boudi _3812; chapparaband-galli_3779; bijapur_4367; bijapur-_4548; bijapur-_4973; bijapur-_4958; indi-road _5055; babaleshwar-naka_5673; rani-bagicha_5859; ameen-nagar _6211; lalbahadur-shastrinagar_6454; indiranagar_6660; lalbahadur-shastrinagar_6975; j-m road  zanda kattan road _7550; jadar-galli_7464; near-uppali buruz_7627; kannya- nagar_7765</t>
-  </si>
-  <si>
-    <t>ramanagar_3305; suhag-colony_5387; nisar-maddi_7615; nisar-maddi_5707; tippu-sultan nagar _4279; ramanagar_6875; nisar-maddi_7664; nisar-maddi_7486; lal-bangla_4878; nisar-maddi_5634; khaja-nagar _6517; jalanagar-_7626; nisar-maddi_7527; bijapur-_4496; bijapur-hudco colony _4943; managuli-agashi_6749; malla-madarasa chunna bati _7566</t>
-  </si>
-  <si>
-    <t>navanagar_5349; amargol_6777; bhairidevarkop_5231; amargol_5357; navanagar_5599; navanagar_6537; amargol_6754; navanagar_6693; amargol_7482; navanagar_7347; navanagar_7346</t>
+    <t>veerbhadra-nagar_3830; shivaji-nagar _7336; subhash-nagar_4682; gyangawadi_4928; gyangawadi_5183; nehru-nagar _5413; subhash-nagar_4443; shivabasav-nagar_9202</t>
+  </si>
+  <si>
+    <t>suhag-colony_4005; suhag-colony_4727; patel-galli_4684; shakti-nagar_4685; shakti-nagar_4923; shakti-nagar_4880; patel-galli _5315; shakti-nagar_5218; ameen-nagar _6200; raheem-nagar _6114; shakti-nagar_6322; adaki-galli_6751; suhag-colony_6719; adaki-galli_6916; neharu-nagar_7178; jorapur-peth gondali galli_7628; babaleshwar-naka_4906; babaleshwar-naka_4854; khaja-nagar _5079; babaleshwar-naka_5306; khaja-nagar _5214; babaleshwar-naka_6558; ward-no 32_6880; taj-bowdi_7337; babaleshwar-naka_7315; shali-husen nagar _7682; j-m roda k h b colony bijapur_9058; rani-bagicha_4538; jadar-galli_4797; bijapur-_5047; rani-bagicha_5113; lalbahadur-shastrinagar_7069; j-m roda k h b colony bijapur_8595; mahal-bagayat_3317; indiranagar_3763; j-m roda k h b colony bijapur_3821; j-m roda k h b colony bijapur_4109; jm-road_4068; kumbar-galli_4334; j-m road pethi bowdi _4456; j-m roda k h b colony bijapur_4368; j-m road  zanda kattan road _4899; j-m road bagayat galli_4948; haranashikari-galli_5170; julai-galli _6533; j-m roda k h b colony bijapur_8929; j-m road turki galli_8810; managuli-agashi_5627; ward-na 28 sakaf roza _4925; ibrahim-roza _7131; ramanagar_8824; raheem-nagar _4678; peti-boudi _3837; shakti-nagar_4200; hakeem-chowk _8652; shahpur-geta_3628; godihal-galli _3735; j-m road  zanda kattan road _6836; kumbar-galli_3350; j-m road pethi bowdi _3332; jamiya-masjid road vijayapur _3330; harakiri-galli _3315; kalebag_4424; patel-galli_4415; ukkali-buruz_3743; matapati-galli_3873; j-m roda k h b colony bijapur_3807; hariyal-galli_4023; neharu-nagar_4168; j-m roda k h b colony bijapur_4113; shahpur-geta_4319; bijapur_4413; rajput-galli_4512; hariyal-galli_4155; raheem-nagar _4650; lalbahadur-shastrinagar_4560; kumbar-galli_4759; ganesh-nagar _4704; rajput-galli_4897; babaleshwar-naka_4882; j-m road bagayat galli_4804; lalbahadur-shastrinagar_5018; suhag-colony_5007; taj-bowdi_4926; raheem-nagar _5080; peti-boudi _5071; gyang-bawadi _5286; cmc-colony _5204; kalebag_5706; navabag_6378; raheem-nagar _7061; ibrahim-roza _7162; indi-road _7410; neharu-nagar_7579; shakti-nagar_9177; allapur-oni_8582; tekade-galli  _4683; ibrahimpur_4877; pailwan-galli _5186; allapur-oni_5181; pailwan-galli _5067; babaleshwar-naka_5782; babaleshwar-naka_5761; khaja-nagar _5983; babaleshwar-naka_6455; babaleshwar-naka_6446; babaleshwar-naka_6814; babaleshwar-naka_6772; babaleshwar-naka_7078; ibrahim-roza _7217; keerti-nagar_7360; station-road gummaz galli _7835; station-road gummaz galli _8208; kalebag_8318; j-m road pethi bowdi _3496; jm-road_3608; chapparaband-galli_3779; badi-kaman_3730; indra-nagar_3865; peti-boudi _3812; bijapur_4367; bijapur-_4548; indi-road _5055; bijapur-_4973; bijapur-_4958; babaleshwar-naka_5673; taj-bowdi_8494; rani-bagicha_5859; rani-bagicha_6098; ameen-nagar _6211; lalbahadur-shastrinagar_6454; indiranagar_6660; lalbahadur-shastrinagar_6975; jadar-galli_7464; jadar-galli_7418; j-m road  zanda kattan road _7550; suhag-colony_8388; basava-nagar _8905; kannya- nagar_5457; near-uppali buruz_7627; kannya- nagar_7765; kannya- nagar_8114; j-m roda k h b colony bijapur_8554; j-m roda k h b colony bijapur_8585; indiranagar_3749; hakeem-chowk _3860; shakti-nagar_4045; rajputa-galli_4002; haranashikari-galli_4000; neharu-nagar_3976; neharu-nagar_4153; pailwan-galli _4122; ward-no 15 station road cmc qurters near hasimpeer darga bijapur _4612; haranashikari-galli_4861; j-m road bagayat galli_4827; ward-no 32_5029; rani-bagicha_4970; j-m road bagayat galli_5935; indi-road _6552; j-m road  zanda kattan road _6443; indi-road _6737; mubarak-colony _6742; managuli-agashi_6941; shahpet_7420; rajput-galli_8033; station-road gummaz galli _8385; badi-kaman_8968</t>
+  </si>
+  <si>
+    <t>suhag-colony_5387; ramanagar_3305; tippu-sultan nagar _4279; nisar-maddi_5707; ramanagar_6875; nisar-maddi_7615; nisar-maddi_7664; nisar-maddi_7486; bijapur-_4496; bijapur-hudco colony _4943; managuli-agashi_6749; nisar-maddi_7527; malla-madarasa chunna bati _7566; ; lal-bangla_4878; nisar-maddi_5634; khaja-nagar _6517; jalanagar-_7626</t>
+  </si>
+  <si>
+    <t>navanagar_5349; bhairidevarkop_5231; amargol_6777; amargol_5357; navanagar_5599; navanagar_6537; amargol_6754; navanagar_6693; amargol_7482; navanagar_7347; navanagar_7346</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>04/05/2024</t>
+  </si>
+  <si>
+    <t>03/08/2024</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>03/22/2024</t>
+  </si>
+  <si>
+    <t>04/04/2024</t>
+  </si>
+  <si>
+    <t>03/16/2024</t>
+  </si>
+  <si>
+    <t>03/20/2024</t>
+  </si>
+  <si>
+    <t>04/20/2024</t>
+  </si>
+  <si>
+    <t>01/18/2024</t>
+  </si>
+  <si>
+    <t>05/28/2024</t>
+  </si>
+  <si>
+    <t>05/24/2024</t>
+  </si>
+  <si>
+    <t>04/29/2024</t>
+  </si>
+  <si>
+    <t>04/18/2024</t>
   </si>
 </sst>
 </file>
@@ -782,6 +827,9 @@
       <c r="Y2">
         <v>0</v>
       </c>
+      <c r="Z2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3">
@@ -847,6 +895,9 @@
       <c r="Y3">
         <v>0</v>
       </c>
+      <c r="Z3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4">
@@ -912,6 +963,9 @@
       <c r="Y4">
         <v>0</v>
       </c>
+      <c r="Z4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5">
@@ -980,6 +1034,9 @@
       <c r="Y5">
         <v>4</v>
       </c>
+      <c r="Z5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6">
@@ -1045,6 +1102,9 @@
       <c r="Y6">
         <v>0</v>
       </c>
+      <c r="Z6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7">
@@ -1110,6 +1170,9 @@
       <c r="Y7">
         <v>0</v>
       </c>
+      <c r="Z7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8">
@@ -1175,6 +1238,9 @@
       <c r="Y8">
         <v>0</v>
       </c>
+      <c r="Z8" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9">
@@ -1240,6 +1306,9 @@
       <c r="Y9">
         <v>4</v>
       </c>
+      <c r="Z9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10">
@@ -1305,6 +1374,9 @@
       <c r="Y10">
         <v>4</v>
       </c>
+      <c r="Z10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11">
@@ -1370,6 +1442,9 @@
       <c r="Y11">
         <v>0</v>
       </c>
+      <c r="Z11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12">
@@ -1427,13 +1502,16 @@
         <v>0</v>
       </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>4</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
+      <c r="Z12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1500,6 +1578,9 @@
       <c r="Y13">
         <v>0</v>
       </c>
+      <c r="Z13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14">
@@ -1533,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14" t="s">
         <v>61</v>
@@ -1548,10 +1629,10 @@
         <v>130</v>
       </c>
       <c r="S14">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T14">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1560,13 +1641,16 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1601,7 +1685,7 @@
         <v>55</v>
       </c>
       <c r="K15">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
         <v>62</v>
@@ -1625,13 +1709,13 @@
         <v>115</v>
       </c>
       <c r="S15">
-        <v>1774</v>
+        <v>1974</v>
       </c>
       <c r="T15">
-        <v>1213</v>
+        <v>1335</v>
       </c>
       <c r="U15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1643,7 +1727,10 @@
         <v>0</v>
       </c>
       <c r="Y15">
-        <v>228</v>
+        <v>257</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1693,10 +1780,10 @@
         <v>115</v>
       </c>
       <c r="S16">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="T16">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -1711,10 +1798,13 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>803083</v>
       </c>
@@ -1761,7 +1851,7 @@
         <v>144</v>
       </c>
       <c r="S17">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T17">
         <v>66</v>
@@ -1781,8 +1871,11 @@
       <c r="Y17">
         <v>15</v>
       </c>
+      <c r="Z17" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>803083</v>
       </c>
@@ -1832,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1845,6 +1938,9 @@
       </c>
       <c r="Y18">
         <v>0</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
